--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-220096.9829636516</v>
+        <v>-222561.0464073575</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.2724881816255</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>92.18162689094436</v>
+        <v>10.88033756280007</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>178.1717951428568</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.9899243971809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>243.2012226245579</v>
+        <v>33.78298043858148</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>68.46460385072106</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.18872674459101</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>142.679692963796</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>197.1871596835337</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>62.9543396600121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>77.90058429280643</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465701</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856421</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899587</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>18.93832930943055</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>2.44572777409376</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>212.5602966632249</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="F19" t="n">
-        <v>61.17550840396208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3888470662397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>33.55293486399881</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>23.6255456814127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>124.6209519256032</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.155999212081729</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>50.49265242092939</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1729.737177017087</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>481.584566587187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653546</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392466</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392466</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1555.63715367001</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1300.952665464123</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>1011.535495427162</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758595</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818184</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.940973211433</v>
+        <v>897.4104964852691</v>
       </c>
       <c r="E5" t="n">
-        <v>765.1527206131889</v>
+        <v>511.6222438870248</v>
       </c>
       <c r="F5" t="n">
-        <v>354.1668158235813</v>
+        <v>100.6363390974172</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995487</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
         <v>624.6477645191717</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541191</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335304</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.753954829525</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>774.7644039315074</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>774.7644039315074</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1559.116588708439</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.154071768027</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>557.1590183167832</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>550.2135175675797</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.855760748373</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2335.855760748373</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1945.716428772561</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.724875630924</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1567.090747791224</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5174547744541</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y10" t="n">
-        <v>742.724875630924</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263525</v>
+        <v>789.7592298206052</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356181</v>
+        <v>620.8230468926984</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232824</v>
+        <v>470.7064074803626</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408893</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429789</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578588</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000569</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.19941337816</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172273</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135312</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237295</v>
+        <v>1192.200273794375</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093765</v>
+        <v>971.407694650845</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.400878868271</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868271</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662385</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625424</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727407</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583877</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4311299055719</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5180363231788</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,25 +5671,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614378</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179076</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>633.4413279836774</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C22" t="n">
-        <v>464.5051450557705</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2097.048807754114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>815.0897928139171</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317904</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830887</v>
+        <v>593.6115863899971</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>443.4949469776614</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>443.4949469776614</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>443.4949469776614</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2439.734801547855</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2256.879967202759</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2037.2785022257</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1748.203275569898</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1493.518787364011</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>1204.10161732705</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.10161732705</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.30903818352</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,16 +6467,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7020,19 +7020,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,10 +7190,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,10 +7354,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-4.979350265443827e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>273.0912648800632</v>
+        <v>354.3925542082075</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>407.5791101131613</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.59472895491385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992854</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.7713260796066</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.845153664063332</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="F19" t="n">
-        <v>84.24553961896916</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>52.01660326104852</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>185.031718488096</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>40.90318636666565</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.21924749803996</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>201.6449909028986</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028987</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991061</v>
@@ -26323,37 +26323,37 @@
         <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="I2" t="n">
-        <v>302679.9748837524</v>
-      </c>
       <c r="J2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837521</v>
-      </c>
       <c r="M2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41088.16559560961</v>
+        <v>41088.16559560976</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,13 +26433,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26451,10 +26451,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1203045.885281697</v>
+        <v>-1203267.016595672</v>
       </c>
       <c r="C6" t="n">
-        <v>108382.7681845436</v>
+        <v>108382.7681845437</v>
       </c>
       <c r="D6" t="n">
-        <v>108382.7681845436</v>
+        <v>108382.7681845434</v>
       </c>
       <c r="E6" t="n">
-        <v>-136241.9369293284</v>
+        <v>-136276.674854764</v>
       </c>
       <c r="F6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="G6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525912</v>
       </c>
       <c r="H6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="I6" t="n">
-        <v>189170.5248780272</v>
+        <v>189135.7869525912</v>
       </c>
       <c r="J6" t="n">
-        <v>-28360.67751925069</v>
+        <v>-28395.41544468634</v>
       </c>
       <c r="K6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525912</v>
       </c>
       <c r="L6" t="n">
-        <v>189170.5248780269</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="M6" t="n">
-        <v>104115.4969425153</v>
+        <v>104080.7590170795</v>
       </c>
       <c r="N6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="O6" t="n">
-        <v>189170.5248780269</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="P6" t="n">
         <v>164921.0504066474</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304.4613534818551</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.342615540292172</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>108.0400430627561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>167.7205030288955</v>
+        <v>377.138745214872</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>218.0583944858699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>145.3959266075038</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>268.2420326896575</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>152.0538090338793</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>104.2924814386157</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>208.3112539128064</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,19 +31835,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>253.8670488165984</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33740,22 +33740,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>127.0294221499317</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>224.3390294385614</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
